--- a/branches/version-1/StructureDefinition-resource-create-update-at-datetime.xlsx
+++ b/branches/version-1/StructureDefinition-resource-create-update-at-datetime.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="115">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T13:10:48+00:00</t>
+    <t>2022-05-04T13:13:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -309,6 +309,9 @@
     <t>createdAt</t>
   </si>
   <si>
+    <t>createdAt :  Contains the date/timestamp for when the instance is created</t>
+  </si>
+  <si>
     <t>Extension.extension.id</t>
   </si>
   <si>
@@ -358,6 +361,9 @@
   </si>
   <si>
     <t>updatedAt</t>
+  </si>
+  <si>
+    <t>updatedAt : Contains the date/timestamp for when the instance is last updated</t>
   </si>
   <si>
     <t>base64Binary
@@ -683,7 +689,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="44.2578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="73.9921875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1153,7 +1159,7 @@
         <v>87</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L5" t="s" s="2">
         <v>75</v>
@@ -1227,7 +1233,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1327,7 +1333,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1427,7 +1433,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1450,16 +1456,16 @@
         <v>72</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1509,7 +1515,7 @@
         <v>72</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>79</v>
@@ -1524,12 +1530,12 @@
         <v>72</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1552,13 +1558,13 @@
         <v>72</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1609,7 +1615,7 @@
         <v>72</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>73</v>
@@ -1621,10 +1627,10 @@
         <v>72</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
@@ -1632,7 +1638,7 @@
         <v>85</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>72</v>
@@ -1657,7 +1663,7 @@
         <v>87</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L10" t="s" s="2">
         <v>75</v>
@@ -1731,7 +1737,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1831,7 +1837,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1931,7 +1937,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1954,16 +1960,16 @@
         <v>72</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -1971,7 +1977,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>72</v>
@@ -2013,7 +2019,7 @@
         <v>72</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>79</v>
@@ -2028,12 +2034,12 @@
         <v>72</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2056,13 +2062,13 @@
         <v>72</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2113,7 +2119,7 @@
         <v>72</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>73</v>
@@ -2125,15 +2131,15 @@
         <v>72</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2156,16 +2162,16 @@
         <v>72</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2215,7 +2221,7 @@
         <v>72</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>79</v>
@@ -2230,12 +2236,12 @@
         <v>72</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2258,13 +2264,13 @@
         <v>72</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2315,7 +2321,7 @@
         <v>72</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>73</v>
@@ -2327,10 +2333,10 @@
         <v>72</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/branches/version-1/StructureDefinition-resource-create-update-at-datetime.xlsx
+++ b/branches/version-1/StructureDefinition-resource-create-update-at-datetime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T13:13:59+00:00</t>
+    <t>2022-05-04T13:39:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-resource-create-update-at-datetime.xlsx
+++ b/branches/version-1/StructureDefinition-resource-create-update-at-datetime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T13:39:21+00:00</t>
+    <t>2022-05-04T15:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-resource-create-update-at-datetime.xlsx
+++ b/branches/version-1/StructureDefinition-resource-create-update-at-datetime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T15:50:12+00:00</t>
+    <t>2022-05-04T16:10:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-resource-create-update-at-datetime.xlsx
+++ b/branches/version-1/StructureDefinition-resource-create-update-at-datetime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T16:10:39+00:00</t>
+    <t>2022-05-04T16:22:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-resource-create-update-at-datetime.xlsx
+++ b/branches/version-1/StructureDefinition-resource-create-update-at-datetime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T16:22:16+00:00</t>
+    <t>2022-05-04T18:38:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-resource-create-update-at-datetime.xlsx
+++ b/branches/version-1/StructureDefinition-resource-create-update-at-datetime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T18:38:54+00:00</t>
+    <t>2022-05-09T16:15:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-resource-create-update-at-datetime.xlsx
+++ b/branches/version-1/StructureDefinition-resource-create-update-at-datetime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-09T16:15:14+00:00</t>
+    <t>2022-05-09T16:42:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-resource-create-update-at-datetime.xlsx
+++ b/branches/version-1/StructureDefinition-resource-create-update-at-datetime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-09T16:42:31+00:00</t>
+    <t>2022-05-09T17:25:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-resource-create-update-at-datetime.xlsx
+++ b/branches/version-1/StructureDefinition-resource-create-update-at-datetime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-09T17:25:07+00:00</t>
+    <t>2022-05-09T17:41:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-resource-create-update-at-datetime.xlsx
+++ b/branches/version-1/StructureDefinition-resource-create-update-at-datetime.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="116">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-09T17:41:36+00:00</t>
+    <t>2022-05-09T17:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,6 +75,9 @@
     <t>Description</t>
   </si>
   <si>
+    <t>Captures the created at an updated at attributes of date timestamps for a questionnaire</t>
+  </si>
+  <si>
     <t>Purpose</t>
   </si>
   <si>
@@ -238,9 +241,6 @@
   </si>
   <si>
     <t>*</t>
-  </si>
-  <si>
-    <t>An Extension</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -310,6 +310,9 @@
   </si>
   <si>
     <t>createdAt :  Contains the date/timestamp for when the instance is created</t>
+  </si>
+  <si>
+    <t>An Extension</t>
   </si>
   <si>
     <t>Extension.extension.id</t>
@@ -593,74 +596,76 @@
       <c r="A11" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" t="s" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -719,203 +724,203 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K2" t="s" s="2">
         <v>9</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH2" t="s" s="2">
         <v>76</v>
@@ -924,7 +929,7 @@
         <v>77</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
@@ -933,23 +938,23 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>80</v>
@@ -963,65 +968,65 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ3" t="s" s="2">
         <v>84</v>
@@ -1037,19 +1042,19 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J4" t="s" s="2">
         <v>87</v>
@@ -1065,38 +1070,38 @@
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>91</v>
@@ -1105,7 +1110,7 @@
         <v>92</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>93</v>
@@ -1114,13 +1119,13 @@
         <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>77</v>
@@ -1137,23 +1142,23 @@
         <v>95</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>87</v>
@@ -1162,98 +1167,98 @@
         <v>96</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE5" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J6" t="s" s="2">
         <v>80</v>
@@ -1267,65 +1272,65 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>84</v>
@@ -1333,72 +1338,72 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA7" t="s" s="2">
         <v>91</v>
@@ -1407,7 +1412,7 @@
         <v>92</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD7" t="s" s="2">
         <v>93</v>
@@ -1416,28 +1421,28 @@
         <v>94</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -1447,75 +1452,75 @@
         <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
         <v>95</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>79</v>
@@ -1524,113 +1529,113 @@
         <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
@@ -1638,126 +1643,126 @@
         <v>85</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>80</v>
@@ -1771,65 +1776,65 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>84</v>
@@ -1837,72 +1842,72 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>91</v>
@@ -1911,7 +1916,7 @@
         <v>92</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>93</v>
@@ -1920,28 +1925,28 @@
         <v>94</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -1951,75 +1956,75 @@
         <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>79</v>
@@ -2028,122 +2033,122 @@
         <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -2153,75 +2158,75 @@
         <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
         <v>3</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>79</v>
@@ -2230,113 +2235,113 @@
         <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/branches/version-1/StructureDefinition-resource-create-update-at-datetime.xlsx
+++ b/branches/version-1/StructureDefinition-resource-create-update-at-datetime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-09T17:47:29+00:00</t>
+    <t>2022-05-09T17:48:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-resource-create-update-at-datetime.xlsx
+++ b/branches/version-1/StructureDefinition-resource-create-update-at-datetime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-09T17:48:55+00:00</t>
+    <t>2022-05-09T17:49:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-resource-create-update-at-datetime.xlsx
+++ b/branches/version-1/StructureDefinition-resource-create-update-at-datetime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-09T17:49:02+00:00</t>
+    <t>2022-05-09T17:56:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-resource-create-update-at-datetime.xlsx
+++ b/branches/version-1/StructureDefinition-resource-create-update-at-datetime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-09T17:56:47+00:00</t>
+    <t>2022-05-09T17:59:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-resource-create-update-at-datetime.xlsx
+++ b/branches/version-1/StructureDefinition-resource-create-update-at-datetime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-09T17:59:55+00:00</t>
+    <t>2022-05-09T19:51:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-resource-create-update-at-datetime.xlsx
+++ b/branches/version-1/StructureDefinition-resource-create-update-at-datetime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-09T19:51:46+00:00</t>
+    <t>2022-05-10T12:02:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-resource-create-update-at-datetime.xlsx
+++ b/branches/version-1/StructureDefinition-resource-create-update-at-datetime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-10T12:02:28+00:00</t>
+    <t>2022-05-10T12:53:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-resource-create-update-at-datetime.xlsx
+++ b/branches/version-1/StructureDefinition-resource-create-update-at-datetime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-10T12:53:35+00:00</t>
+    <t>2022-05-10T16:32:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-resource-create-update-at-datetime.xlsx
+++ b/branches/version-1/StructureDefinition-resource-create-update-at-datetime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-10T16:32:58+00:00</t>
+    <t>2022-05-10T17:44:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
